--- a/biology/Médecine/Immunocytochimie/Immunocytochimie.xlsx
+++ b/biology/Médecine/Immunocytochimie/Immunocytochimie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’immunocytochimie est une méthode d’analyse des cellules in situ par une technique d’immunofluorescence.
 Une technique immunochimique dont l'échantillon est une préparation cytologique.
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'immunocytochimie permet de révéler et cibler une molécule biologique à l’échelle cellulaire depuis des anticorps spécifiques. Pour mettre en évidence ce complexe antigène-anticorps, on peut schématiser très simplement cette réaction, par :
 d’un côté, l’antigène que l’on veut localiser :
@@ -544,7 +558,9 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Western Blot
 Microscope électronique à transmission.
